--- a/InputData/trans/BLP/BAU LCFS Perc.xlsx
+++ b/InputData/trans/BLP/BAU LCFS Perc.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-indonesia\InputData\trans\BLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE6B618E-A2BA-436B-971E-64FB785F0B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13455" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="calculation" sheetId="6" r:id="rId2"/>
-    <sheet name="emission" sheetId="11" r:id="rId3"/>
-    <sheet name="BLP" sheetId="3" r:id="rId4"/>
+    <sheet name="BLP" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,8 +23,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>BLP BAU LCFS Percentage</t>
   </si>
@@ -43,77 +38,41 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>% of transport fuels</t>
+    <t>Notes</t>
   </si>
   <si>
-    <t>% decarbonized</t>
+    <t>The National Renewable Fuel Standard is specified in gallons of renewable fuel</t>
   </si>
   <si>
-    <t>Notes</t>
+    <t>and a requirement for percent decarbonization of that fuel relative to a baseline</t>
+  </si>
+  <si>
+    <t>fuel type.  We convert from gallons to a share of total fuel, then multiply by the</t>
+  </si>
+  <si>
+    <t>required decarbonization percentage, to convert the policy into the form</t>
+  </si>
+  <si>
+    <t>needed for the LCFS in the EPS.</t>
   </si>
   <si>
     <t>BAU LCFS Perc (dimensionless)</t>
   </si>
   <si>
-    <t>B30 and E20 Policy</t>
+    <t>None needed</t>
   </si>
   <si>
-    <t>Presidential Decree No. 12 Year 2015 on Biofuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://jdih.esdm.go.id/peraturan/Permen%20ESDM%2012%20Thn%202015.pdf </t>
-  </si>
-  <si>
-    <t>Appendix A and B</t>
-  </si>
-  <si>
-    <t>President of Republic of Indonesia</t>
-  </si>
-  <si>
-    <t>Emission Reduction</t>
-  </si>
-  <si>
-    <t>https://www.winnipeg.ca/finance/findata/matmgt/documents/2012/682-2012/682-2012_Appendix_H-WSTP_South_End_Plant_Process_Selection_Report/Appendix%207.pdf</t>
-  </si>
-  <si>
-    <t>Winnipeg</t>
-  </si>
-  <si>
-    <t>Emission factor in kg CO2-equivalent per unit</t>
-  </si>
-  <si>
-    <t>% of emission reduction</t>
-  </si>
-  <si>
-    <t>Emission factor</t>
-  </si>
-  <si>
-    <t>diesel (liter)</t>
-  </si>
-  <si>
-    <t>biodiesel (liter)</t>
-  </si>
-  <si>
-    <t>kg CO2eq</t>
-  </si>
-  <si>
-    <t>% reduction</t>
-  </si>
-  <si>
-    <t>*assumed that percentage is constant at 30%</t>
-  </si>
-  <si>
-    <t>Indonesia does not have LCFS policy, instead we include mandatory B30 (biodiesel-solar) policy for on-road vehicles, then multiply by the  carbon intensity reduction that apples to biodiesel use to get the decarbonization (LCFS) percentage.</t>
+    <t>No BAU LCFS is specified for the US.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,14 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -277,18 +228,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -616,9 +561,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
@@ -641,144 +585,135 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="65">
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent1 2" xfId="52" xr:uid="{32320063-281D-4EF8-8309-D72DE978D8EB}"/>
-    <cellStyle name="20% - Accent2" xfId="29" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2 2" xfId="54" xr:uid="{D8F2E2C5-9F34-46DF-AFC1-0109AC0F77D3}"/>
-    <cellStyle name="20% - Accent3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3 2" xfId="56" xr:uid="{A4467A85-48F0-4509-87C1-E8850BADCC19}"/>
-    <cellStyle name="20% - Accent4" xfId="35" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4 2" xfId="58" xr:uid="{5A086145-7F69-4292-8D35-E3993DF518AD}"/>
-    <cellStyle name="20% - Accent5" xfId="38" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5 2" xfId="60" xr:uid="{DE38A67F-B55C-4C67-BE83-BF39EC60F9D4}"/>
-    <cellStyle name="20% - Accent6" xfId="41" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6 2" xfId="62" xr:uid="{D2F2B8DF-B4F3-4BEE-9076-2E60EDFDFE9A}"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1 2" xfId="53" xr:uid="{BC0B8C4F-D2A7-42C1-9CEA-4E68045ED7C5}"/>
-    <cellStyle name="40% - Accent2" xfId="30" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2 2" xfId="55" xr:uid="{2C6712E3-6F0B-4521-B3EC-360C322D3DD5}"/>
-    <cellStyle name="40% - Accent3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3 2" xfId="57" xr:uid="{126D3829-971F-4802-8EDD-17847CD86BA4}"/>
-    <cellStyle name="40% - Accent4" xfId="36" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4 2" xfId="59" xr:uid="{0AA3D584-7D43-4862-B987-CAD3CF4FD23D}"/>
-    <cellStyle name="40% - Accent5" xfId="39" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5 2" xfId="61" xr:uid="{D5506D38-C366-4E63-9933-C3B270B4DAE9}"/>
-    <cellStyle name="40% - Accent6" xfId="42" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6 2" xfId="63" xr:uid="{3B77F0D6-A22D-461D-96BC-D1CD88093502}"/>
-    <cellStyle name="60% - Accent1 2" xfId="45" xr:uid="{6BCE10FA-8FDC-4F52-801F-BCD84E62F178}"/>
-    <cellStyle name="60% - Accent2 2" xfId="46" xr:uid="{FEA36FA5-D459-4B5B-AAFD-FE0729E88A61}"/>
-    <cellStyle name="60% - Accent3 2" xfId="47" xr:uid="{23A11457-666E-46DB-8B92-EFEBEF01A779}"/>
-    <cellStyle name="60% - Accent4 2" xfId="48" xr:uid="{734ABFD1-2B59-410E-9B70-DE7E095F132D}"/>
-    <cellStyle name="60% - Accent5 2" xfId="49" xr:uid="{708FB6CF-5617-45F7-8AA5-5E9F8863AACE}"/>
-    <cellStyle name="60% - Accent6 2" xfId="50" xr:uid="{6AC769E9-D838-4F60-A288-03AB905BECE6}"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="28" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="34" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="37" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="40" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="64" xr:uid="{4D8D67BC-84DC-4595-B841-46EBB3975AA5}"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="20" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="23" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Good" xfId="14" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header: bottom row" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Heading 1" xfId="10" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="12" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="13" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Input" xfId="16" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="19" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="44" xr:uid="{88CC3CA0-59E7-44BB-B29D-FF57551DDD2D}"/>
+  <cellStyles count="63">
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1 2" xfId="50"/>
+    <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="52"/>
+    <cellStyle name="20% - Accent3" xfId="31" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3 2" xfId="54"/>
+    <cellStyle name="20% - Accent4" xfId="34" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4 2" xfId="56"/>
+    <cellStyle name="20% - Accent5" xfId="37" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5 2" xfId="58"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6 2" xfId="60"/>
+    <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1 2" xfId="51"/>
+    <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2 2" xfId="53"/>
+    <cellStyle name="40% - Accent3" xfId="32" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3 2" xfId="55"/>
+    <cellStyle name="40% - Accent4" xfId="35" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4 2" xfId="57"/>
+    <cellStyle name="40% - Accent5" xfId="38" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5 2" xfId="59"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6 2" xfId="61"/>
+    <cellStyle name="60% - Accent1 2" xfId="43"/>
+    <cellStyle name="60% - Accent2 2" xfId="44"/>
+    <cellStyle name="60% - Accent3 2" xfId="45"/>
+    <cellStyle name="60% - Accent4 2" xfId="46"/>
+    <cellStyle name="60% - Accent5 2" xfId="47"/>
+    <cellStyle name="60% - Accent6 2" xfId="48"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="30" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="33" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="36" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="14" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="62"/>
+    <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Good" xfId="13" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Heading 1" xfId="9" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="10" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="11" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="12" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="42"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Note" xfId="22" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Note 2" xfId="51" xr:uid="{AA9AF6D9-80EA-4717-BEEF-78ABA1934CF8}"/>
-    <cellStyle name="Output" xfId="17" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Table title" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Title" xfId="9" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="24" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="21" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note 2" xfId="49"/>
+    <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -791,55 +726,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>236221</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>515162</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FDB0F9F-A6CF-4F05-8143-27275ACD246E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="236221" y="1287781"/>
-          <a:ext cx="4523281" cy="1546859"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -918,23 +804,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -970,23 +839,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1162,450 +1014,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="56.81640625" customWidth="1"/>
-    <col min="5" max="5" width="63" customWidth="1"/>
+    <col min="2" max="2" width="56.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="3">
-        <v>2015</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{F4DD766E-7C1A-42D1-A7DC-A5FE1128B5DE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9973483C-F24E-445D-B023-11424C9B6CAC}">
-  <dimension ref="A2:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0.2903</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9">
-        <f>B2*B3</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE0380E-4BEB-480A-8337-62D4AD2B0F07}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="8">
-        <f>B4/B3*100</f>
-        <v>29.032258064516132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
-        <v>2019</v>
-      </c>
-      <c r="C1">
         <v>2020</v>
       </c>
-      <c r="D1" s="8">
+      <c r="C1" s="4">
         <v>2021</v>
       </c>
-      <c r="E1" s="8">
+      <c r="D1" s="4">
         <v>2022</v>
       </c>
-      <c r="F1" s="8">
+      <c r="E1" s="4">
         <v>2023</v>
       </c>
-      <c r="G1" s="8">
+      <c r="F1" s="4">
         <v>2024</v>
       </c>
-      <c r="H1" s="8">
+      <c r="G1" s="4">
         <v>2025</v>
       </c>
-      <c r="I1" s="8">
+      <c r="H1" s="4">
         <v>2026</v>
       </c>
-      <c r="J1" s="8">
+      <c r="I1" s="4">
         <v>2027</v>
       </c>
-      <c r="K1" s="8">
+      <c r="J1" s="4">
         <v>2028</v>
       </c>
-      <c r="L1" s="8">
+      <c r="K1" s="4">
         <v>2029</v>
       </c>
-      <c r="M1" s="8">
+      <c r="L1" s="4">
         <v>2030</v>
       </c>
-      <c r="N1" s="8">
+      <c r="M1" s="4">
         <v>2031</v>
       </c>
-      <c r="O1" s="8">
+      <c r="N1" s="4">
         <v>2032</v>
       </c>
-      <c r="P1" s="8">
+      <c r="O1" s="4">
         <v>2033</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="P1" s="4">
         <v>2034</v>
       </c>
-      <c r="R1" s="8">
+      <c r="Q1" s="4">
         <v>2035</v>
       </c>
-      <c r="S1" s="8">
+      <c r="R1" s="4">
         <v>2036</v>
       </c>
-      <c r="T1" s="8">
+      <c r="S1" s="4">
         <v>2037</v>
       </c>
-      <c r="U1" s="8">
+      <c r="T1" s="4">
         <v>2038</v>
       </c>
-      <c r="V1" s="8">
+      <c r="U1" s="4">
         <v>2039</v>
       </c>
-      <c r="W1" s="8">
+      <c r="V1" s="4">
         <v>2040</v>
       </c>
-      <c r="X1" s="8">
+      <c r="W1" s="4">
         <v>2041</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="X1" s="4">
         <v>2042</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="Y1" s="4">
         <v>2043</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="Z1" s="4">
         <v>2044</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AA1" s="4">
         <v>2045</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AB1" s="4">
         <v>2046</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AC1" s="4">
         <v>2047</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AD1" s="4">
         <v>2048</v>
       </c>
-      <c r="AF1" s="8">
+      <c r="AE1" s="4">
         <v>2049</v>
       </c>
-      <c r="AG1" s="8">
+      <c r="AF1" s="4">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="C2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="D2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="E2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="F2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="G2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="H2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="I2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="J2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="K2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="L2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="M2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="N2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="O2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="P2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="Q2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="R2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="S2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="T2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="U2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="V2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="W2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="X2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="Y2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="Z2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="AA2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="AB2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="AC2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="AD2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="AE2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="AF2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="AG2" s="6">
-        <f>calculation!$B$4</f>
-        <v>8.7090000000000001E-2</v>
-      </c>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7">
+        <v>0</v>
+      </c>
+      <c r="W2" s="7">
+        <v>0</v>
+      </c>
+      <c r="X2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/trans/BLP/BAU LCFS Perc.xlsx
+++ b/InputData/trans/BLP/BAU LCFS Perc.xlsx
@@ -1,36 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zefania\Career\EPS-IESR\BLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5CB260-7E5D-4060-A111-B0A560D5B517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BLP" sheetId="3" r:id="rId2"/>
+    <sheet name="calculation" sheetId="6" r:id="rId2"/>
+    <sheet name="emission" sheetId="11" r:id="rId3"/>
+    <sheet name="BLP" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>BLP BAU LCFS Percentage</t>
   </si>
@@ -38,41 +31,77 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>% of transport fuels</t>
+  </si>
+  <si>
+    <t>% decarbonized</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>The National Renewable Fuel Standard is specified in gallons of renewable fuel</t>
-  </si>
-  <si>
-    <t>and a requirement for percent decarbonization of that fuel relative to a baseline</t>
-  </si>
-  <si>
-    <t>fuel type.  We convert from gallons to a share of total fuel, then multiply by the</t>
-  </si>
-  <si>
-    <t>required decarbonization percentage, to convert the policy into the form</t>
-  </si>
-  <si>
-    <t>needed for the LCFS in the EPS.</t>
-  </si>
-  <si>
     <t>BAU LCFS Perc (dimensionless)</t>
   </si>
   <si>
-    <t>None needed</t>
-  </si>
-  <si>
-    <t>No BAU LCFS is specified for the US.</t>
+    <t>B30 and E20 Policy</t>
+  </si>
+  <si>
+    <t>Presidential Decree No. 12 Year 2015 on Biofuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jdih.esdm.go.id/peraturan/Permen%20ESDM%2012%20Thn%202015.pdf </t>
+  </si>
+  <si>
+    <t>Appendix A and B</t>
+  </si>
+  <si>
+    <t>President of Republic of Indonesia</t>
+  </si>
+  <si>
+    <t>Emission Reduction</t>
+  </si>
+  <si>
+    <t>https://www.winnipeg.ca/finance/findata/matmgt/documents/2012/682-2012/682-2012_Appendix_H-WSTP_South_End_Plant_Process_Selection_Report/Appendix%207.pdf</t>
+  </si>
+  <si>
+    <t>Winnipeg</t>
+  </si>
+  <si>
+    <t>Emission factor in kg CO2-equivalent per unit</t>
+  </si>
+  <si>
+    <t>% of emission reduction</t>
+  </si>
+  <si>
+    <t>Emission factor</t>
+  </si>
+  <si>
+    <t>diesel (liter)</t>
+  </si>
+  <si>
+    <t>biodiesel (liter)</t>
+  </si>
+  <si>
+    <t>kg CO2eq</t>
+  </si>
+  <si>
+    <t>% reduction</t>
+  </si>
+  <si>
+    <t>*assumed that percentage is constant at 30%</t>
+  </si>
+  <si>
+    <t>Indonesia does not have LCFS policy, instead we include mandatory B30 (biodiesel-solar) policy for on-road vehicles, then multiply by the  carbon intensity reduction that apples to biodiesel use to get the decarbonization (LCFS) percentage.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +250,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -228,12 +265,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -561,8 +604,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
@@ -585,135 +629,144 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="63">
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent1 2" xfId="50"/>
-    <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2 2" xfId="52"/>
-    <cellStyle name="20% - Accent3" xfId="31" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3 2" xfId="54"/>
-    <cellStyle name="20% - Accent4" xfId="34" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4 2" xfId="56"/>
-    <cellStyle name="20% - Accent5" xfId="37" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5 2" xfId="58"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6 2" xfId="60"/>
-    <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1 2" xfId="51"/>
-    <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2 2" xfId="53"/>
-    <cellStyle name="40% - Accent3" xfId="32" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3 2" xfId="55"/>
-    <cellStyle name="40% - Accent4" xfId="35" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4 2" xfId="57"/>
-    <cellStyle name="40% - Accent5" xfId="38" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5 2" xfId="59"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6 2" xfId="61"/>
-    <cellStyle name="60% - Accent1 2" xfId="43"/>
-    <cellStyle name="60% - Accent2 2" xfId="44"/>
-    <cellStyle name="60% - Accent3 2" xfId="45"/>
-    <cellStyle name="60% - Accent4 2" xfId="46"/>
-    <cellStyle name="60% - Accent5 2" xfId="47"/>
-    <cellStyle name="60% - Accent6 2" xfId="48"/>
-    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="30" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="33" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="36" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="14" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="62"/>
-    <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Good" xfId="13" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Heading 1" xfId="9" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="10" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="11" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="12" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="42"/>
+  <cellStyles count="65">
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1 2" xfId="52" xr:uid="{32320063-281D-4EF8-8309-D72DE978D8EB}"/>
+    <cellStyle name="20% - Accent2" xfId="29" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="54" xr:uid="{D8F2E2C5-9F34-46DF-AFC1-0109AC0F77D3}"/>
+    <cellStyle name="20% - Accent3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3 2" xfId="56" xr:uid="{A4467A85-48F0-4509-87C1-E8850BADCC19}"/>
+    <cellStyle name="20% - Accent4" xfId="35" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4 2" xfId="58" xr:uid="{5A086145-7F69-4292-8D35-E3993DF518AD}"/>
+    <cellStyle name="20% - Accent5" xfId="38" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5 2" xfId="60" xr:uid="{DE38A67F-B55C-4C67-BE83-BF39EC60F9D4}"/>
+    <cellStyle name="20% - Accent6" xfId="41" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6 2" xfId="62" xr:uid="{D2F2B8DF-B4F3-4BEE-9076-2E60EDFDFE9A}"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1 2" xfId="53" xr:uid="{BC0B8C4F-D2A7-42C1-9CEA-4E68045ED7C5}"/>
+    <cellStyle name="40% - Accent2" xfId="30" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2 2" xfId="55" xr:uid="{2C6712E3-6F0B-4521-B3EC-360C322D3DD5}"/>
+    <cellStyle name="40% - Accent3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3 2" xfId="57" xr:uid="{126D3829-971F-4802-8EDD-17847CD86BA4}"/>
+    <cellStyle name="40% - Accent4" xfId="36" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4 2" xfId="59" xr:uid="{0AA3D584-7D43-4862-B987-CAD3CF4FD23D}"/>
+    <cellStyle name="40% - Accent5" xfId="39" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5 2" xfId="61" xr:uid="{D5506D38-C366-4E63-9933-C3B270B4DAE9}"/>
+    <cellStyle name="40% - Accent6" xfId="42" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6 2" xfId="63" xr:uid="{3B77F0D6-A22D-461D-96BC-D1CD88093502}"/>
+    <cellStyle name="60% - Accent1 2" xfId="45" xr:uid="{6BCE10FA-8FDC-4F52-801F-BCD84E62F178}"/>
+    <cellStyle name="60% - Accent2 2" xfId="46" xr:uid="{FEA36FA5-D459-4B5B-AAFD-FE0729E88A61}"/>
+    <cellStyle name="60% - Accent3 2" xfId="47" xr:uid="{23A11457-666E-46DB-8B92-EFEBEF01A779}"/>
+    <cellStyle name="60% - Accent4 2" xfId="48" xr:uid="{734ABFD1-2B59-410E-9B70-DE7E095F132D}"/>
+    <cellStyle name="60% - Accent5 2" xfId="49" xr:uid="{708FB6CF-5617-45F7-8AA5-5E9F8863AACE}"/>
+    <cellStyle name="60% - Accent6 2" xfId="50" xr:uid="{6AC769E9-D838-4F60-A288-03AB905BECE6}"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="28" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="34" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="37" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="40" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="15" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="64" xr:uid="{4D8D67BC-84DC-4595-B841-46EBB3975AA5}"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="20" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="23" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Good" xfId="14" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Header: bottom row" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Heading 1" xfId="10" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="12" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="13" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Input" xfId="16" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="19" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="44" xr:uid="{88CC3CA0-59E7-44BB-B29D-FF57551DDD2D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Note 2" xfId="49"/>
-    <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Note" xfId="22" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note 2" xfId="51" xr:uid="{AA9AF6D9-80EA-4717-BEEF-78ABA1934CF8}"/>
+    <cellStyle name="Output" xfId="17" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Table title" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Title" xfId="9" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="24" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="21" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -726,6 +779,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>236221</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>515162</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FDB0F9F-A6CF-4F05-8143-27275ACD246E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="236221" y="1287781"/>
+          <a:ext cx="4523281" cy="1546859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,6 +906,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -839,6 +958,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1014,287 +1150,450 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="56.73046875" customWidth="1"/>
+    <col min="2" max="2" width="56.77734375" customWidth="1"/>
+    <col min="5" max="5" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>10</v>
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{F4DD766E-7C1A-42D1-A7DC-A5FE1128B5DE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9973483C-F24E-445D-B023-11424C9B6CAC}">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.2903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <f>B2*B3</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE0380E-4BEB-480A-8337-62D4AD2B0F07}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8">
+        <f>B4/B3*100</f>
+        <v>29.032258064516132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AF2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.86328125" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
         <v>2020</v>
       </c>
-      <c r="C1" s="4">
+      <c r="D1" s="8">
         <v>2021</v>
       </c>
-      <c r="D1" s="4">
+      <c r="E1" s="8">
         <v>2022</v>
       </c>
-      <c r="E1" s="4">
+      <c r="F1" s="8">
         <v>2023</v>
       </c>
-      <c r="F1" s="4">
+      <c r="G1" s="8">
         <v>2024</v>
       </c>
-      <c r="G1" s="4">
+      <c r="H1" s="8">
         <v>2025</v>
       </c>
-      <c r="H1" s="4">
+      <c r="I1" s="8">
         <v>2026</v>
       </c>
-      <c r="I1" s="4">
+      <c r="J1" s="8">
         <v>2027</v>
       </c>
-      <c r="J1" s="4">
+      <c r="K1" s="8">
         <v>2028</v>
       </c>
-      <c r="K1" s="4">
+      <c r="L1" s="8">
         <v>2029</v>
       </c>
-      <c r="L1" s="4">
+      <c r="M1" s="8">
         <v>2030</v>
       </c>
-      <c r="M1" s="4">
+      <c r="N1" s="8">
         <v>2031</v>
       </c>
-      <c r="N1" s="4">
+      <c r="O1" s="8">
         <v>2032</v>
       </c>
-      <c r="O1" s="4">
+      <c r="P1" s="8">
         <v>2033</v>
       </c>
-      <c r="P1" s="4">
+      <c r="Q1" s="8">
         <v>2034</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="R1" s="8">
         <v>2035</v>
       </c>
-      <c r="R1" s="4">
+      <c r="S1" s="8">
         <v>2036</v>
       </c>
-      <c r="S1" s="4">
+      <c r="T1" s="8">
         <v>2037</v>
       </c>
-      <c r="T1" s="4">
+      <c r="U1" s="8">
         <v>2038</v>
       </c>
-      <c r="U1" s="4">
+      <c r="V1" s="8">
         <v>2039</v>
       </c>
-      <c r="V1" s="4">
+      <c r="W1" s="8">
         <v>2040</v>
       </c>
-      <c r="W1" s="4">
+      <c r="X1" s="8">
         <v>2041</v>
       </c>
-      <c r="X1" s="4">
+      <c r="Y1" s="8">
         <v>2042</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Z1" s="8">
         <v>2043</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="AA1" s="8">
         <v>2044</v>
       </c>
-      <c r="AA1" s="4">
+      <c r="AB1" s="8">
         <v>2045</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AC1" s="8">
         <v>2046</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AD1" s="8">
         <v>2047</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AE1" s="8">
         <v>2048</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AF1" s="8">
         <v>2049</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AG1" s="8">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7">
-        <v>0</v>
-      </c>
-      <c r="U2" s="7">
-        <v>0</v>
-      </c>
-      <c r="V2" s="7">
-        <v>0</v>
-      </c>
-      <c r="W2" s="7">
-        <v>0</v>
-      </c>
-      <c r="X2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="C2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="E2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="F2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="G2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="H2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="I2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="J2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="K2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="L2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="M2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="N2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="O2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="P2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="R2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="S2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="T2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="U2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="V2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="W2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="X2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="Y2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="Z2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="AA2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="AB2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="AC2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="AD2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="AE2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="AF2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="AG2" s="6">
+        <f>calculation!$B$4</f>
+        <v>8.7090000000000001E-2</v>
+      </c>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
